--- a/collection.xlsx
+++ b/collection.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\conta\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\conta\Desktop\naruto-shippuden.datasette.stefan-dev.de\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="69">
   <si>
     <t>URL</t>
   </si>
@@ -225,6 +225,12 @@
   </si>
   <si>
     <t>https://www.amazon.de/Naruto-Shippuden-Staffel-Narutos-Hochzeit/dp/B07SRF1NLT</t>
+  </si>
+  <si>
+    <t>Ja</t>
+  </si>
+  <si>
+    <t>Nein</t>
   </si>
 </sst>
 </file>
@@ -554,7 +560,7 @@
   <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -581,6 +587,9 @@
       <c r="B2" t="s">
         <v>4</v>
       </c>
+      <c r="C2" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -589,6 +598,9 @@
       <c r="B3" t="s">
         <v>7</v>
       </c>
+      <c r="C3" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -597,6 +609,9 @@
       <c r="B4" t="s">
         <v>6</v>
       </c>
+      <c r="C4" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -605,6 +620,9 @@
       <c r="B5" t="s">
         <v>10</v>
       </c>
+      <c r="C5" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -613,6 +631,9 @@
       <c r="B6" t="s">
         <v>11</v>
       </c>
+      <c r="C6" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -621,6 +642,9 @@
       <c r="B7" t="s">
         <v>14</v>
       </c>
+      <c r="C7" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -629,6 +653,9 @@
       <c r="B8" t="s">
         <v>16</v>
       </c>
+      <c r="C8" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -637,6 +664,9 @@
       <c r="B9" t="s">
         <v>17</v>
       </c>
+      <c r="C9" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -645,6 +675,9 @@
       <c r="B10" t="s">
         <v>19</v>
       </c>
+      <c r="C10" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -653,6 +686,9 @@
       <c r="B11" t="s">
         <v>21</v>
       </c>
+      <c r="C11" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -661,6 +697,9 @@
       <c r="B12" t="s">
         <v>24</v>
       </c>
+      <c r="C12" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -669,6 +708,9 @@
       <c r="B13" t="s">
         <v>25</v>
       </c>
+      <c r="C13" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -677,6 +719,9 @@
       <c r="B14" t="s">
         <v>28</v>
       </c>
+      <c r="C14" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -685,6 +730,9 @@
       <c r="B15" t="s">
         <v>30</v>
       </c>
+      <c r="C15" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -693,141 +741,195 @@
       <c r="B16" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>33</v>
       </c>
       <c r="B17" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>34</v>
       </c>
       <c r="B18" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>37</v>
       </c>
       <c r="B19" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>39</v>
       </c>
       <c r="B20" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>41</v>
       </c>
       <c r="B21" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>42</v>
       </c>
       <c r="B22" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>45</v>
       </c>
       <c r="B23" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>46</v>
       </c>
       <c r="B24" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>51</v>
       </c>
       <c r="B25" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>52</v>
       </c>
       <c r="B26" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>53</v>
       </c>
       <c r="B27" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>54</v>
       </c>
       <c r="B28" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>57</v>
       </c>
       <c r="B29" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>59</v>
       </c>
       <c r="B30" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>61</v>
       </c>
       <c r="B31" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>63</v>
       </c>
       <c r="B32" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>65</v>
       </c>
       <c r="B33" t="s">
         <v>66</v>
+      </c>
+      <c r="C33" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/collection.xlsx
+++ b/collection.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\conta\Desktop\naruto-shippuden.datasette.stefan-dev.de\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\conta\Desktop\naruto.dvd.stefan-dev.de\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -560,7 +560,7 @@
   <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -588,7 +588,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -599,7 +599,7 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -610,7 +610,7 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -621,7 +621,7 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -632,7 +632,7 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
